--- a/Assignment 9/Opg 1.xlsx
+++ b/Assignment 9/Opg 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Google Drive\Introduction To Spacecraft Systems\Assignment 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FFED9F-3941-403A-9D85-283D1836D701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7024099-FF0A-48F0-A3DE-9FB0780E150A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B70487B-4E0D-422B-BC63-46EB5D2B1B24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8B70487B-4E0D-422B-BC63-46EB5D2B1B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Resistor</t>
   </si>
@@ -54,18 +54,6 @@
     <t>An. Comp</t>
   </si>
   <si>
-    <t>SSC Level</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Base Failure Rates</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -73,12 +61,62 @@
   </si>
   <si>
     <t>Unspecifed</t>
+  </si>
+  <si>
+    <t>Lambda_b</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>PI_Q</t>
+  </si>
+  <si>
+    <t>PI_E</t>
+  </si>
+  <si>
+    <t>Space Flight</t>
+  </si>
+  <si>
+    <t>SCC C</t>
+  </si>
+  <si>
+    <t>SCC B</t>
+  </si>
+  <si>
+    <t>Sum Lambda</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Lambda_p</t>
+  </si>
+  <si>
+    <t>Failure Rate</t>
+  </si>
+  <si>
+    <t>MTBF Hours</t>
+  </si>
+  <si>
+    <t>MTBF Years</t>
+  </si>
+  <si>
+    <t>Prob. 15 Yr Lifetime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,15 +126,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -104,12 +148,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,113 +587,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650F9A3-D8EF-4401-89AD-4DC83E919FCB}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A4:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="4" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
         <v>0.24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D7" s="10">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <f>$G$5*C7*F7</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D7*G7</f>
+        <v>0.108</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C8" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="3">
+        <f>$G$5*C8*F8</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8:H12" si="0">D8*G8</f>
+        <v>0.31500000000000006</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>2.1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" ref="G9:G12" si="1">$G$5*C9*F9</f>
+        <v>0.63</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>3.6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.25</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>7.2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>10.8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="G12" s="11">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="21">
+        <f>SUM(H7:H12)</f>
+        <v>3.7505000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="19">
+        <f>1/(H14*0.000000001)</f>
+        <v>266631115.85121983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <f>H15/(24*365)</f>
+        <v>30437.341992148384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="20">
+        <f>EXP(-H14*15*365*24/(1000000000))</f>
+        <v>0.99950730571371138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
